--- a/metadata/lib_ALCL_Thymus_RLN.xlsx
+++ b/metadata/lib_ALCL_Thymus_RLN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/putriramadani/Documents/GitHub/scRNAseq_ALCL_Thymus_RLN/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284B43C7-E944-FF4C-BFB4-9B1D11A9D1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA2151-D9E1-B04B-868E-30E01A81965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="760" windowWidth="26920" windowHeight="17480" xr2:uid="{5D30E324-5690-4D49-86CB-3AC4238AD353}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <dimension ref="A1:AU22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/metadata/lib_ALCL_Thymus_RLN.xlsx
+++ b/metadata/lib_ALCL_Thymus_RLN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/putriramadani/Documents/GitHub/scRNAseq_ALCL_Thymus_RLN/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA2151-D9E1-B04B-868E-30E01A81965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4476570C-CE3A-5646-804B-9064853BE3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="760" windowWidth="26920" windowHeight="17480" xr2:uid="{5D30E324-5690-4D49-86CB-3AC4238AD353}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <dimension ref="A1:AU22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
